--- a/ApolloQA/Data/RatingManual/SC/VA00058.IncreasedCombinedSingleLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00058.IncreasedCombinedSingleLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.IncreasedCombinedSingleLimitFactors" sheetId="1" r:id="R78cc969eae9e4277"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00058.IncreasedCombinedSingleLimitFactors" sheetId="1" r:id="R3b60aeab88334a8a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -6218,6 +6218,26 @@
         <x:v>All Other</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.7646</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>10,001</x:v>
       </x:c>
       <x:c t="str">
@@ -7324,6 +7344,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4621</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$350,000</x:v>
       </x:c>
       <x:c t="str">
@@ -8424,6 +8464,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6848</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
@@ -9524,6 +9584,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4177</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$70,000</x:v>
       </x:c>
       <x:c t="str">
@@ -10624,6 +10704,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$35,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1511</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Dump</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$40,000</x:v>
       </x:c>
       <x:c t="str">
@@ -11724,6 +11824,26 @@
         <x:v>20,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$10,000</x:v>
       </x:c>
       <x:c t="str">
@@ -12824,6 +12944,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$350,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.6909</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$400,000</x:v>
       </x:c>
       <x:c t="str">
@@ -13924,6 +14064,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7261</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$125,000</x:v>
       </x:c>
       <x:c t="str">
@@ -15024,6 +15184,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$70,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4643</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$75,000</x:v>
       </x:c>
       <x:c t="str">
@@ -16124,6 +16304,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$40,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1829</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Log</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$45,000</x:v>
       </x:c>
       <x:c t="str">
@@ -17224,6 +17424,26 @@
         <x:v>20,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8786</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$15,000</x:v>
       </x:c>
       <x:c t="str">
@@ -18324,6 +18544,26 @@
         <x:v>45,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$400,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.6673</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$500,000</x:v>
       </x:c>
       <x:c t="str">
@@ -19424,6 +19664,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$125,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8897</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SemiTrailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$150,000</x:v>
       </x:c>
       <x:c t="str">
@@ -20524,6 +20784,26 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$75,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5095</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Tractor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>45,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$80,000</x:v>
       </x:c>
       <x:c t="str">
@@ -21608,6 +21888,26 @@
       </x:c>
       <x:c t="str">
         <x:v>1.1824</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Truckers - Standard</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Trailer</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,001</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$45,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2215</x:v>
       </x:c>
     </x:row>
     <x:row>
